--- a/OrphanEntitlements.xlsx
+++ b/OrphanEntitlements.xlsx
@@ -12,7 +12,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Orphan</t>
+  </si>
   <si>
     <t>User_1</t>
   </si>
@@ -74,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -82,9 +88,6 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -101,15 +104,23 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
